--- a/MyTraining/src/day21/Book1.xlsx
+++ b/MyTraining/src/day21/Book1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\MyGit\MyTraining\src\day21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4241FE2D-0B6F-485C-A605-00541988ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE02E4E-F9FB-4E00-8E26-3B111C2101C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DF5B77F3-B7C9-4968-B7C3-2FF285748D45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{DF5B77F3-B7C9-4968-B7C3-2FF285748D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TC001" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Map</t>
   </si>
@@ -78,6 +79,123 @@
   </si>
   <si>
     <t>ClonedStudentName</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Arun1</t>
+  </si>
+  <si>
+    <t>Balaji1</t>
+  </si>
+  <si>
+    <t>Catherine1</t>
+  </si>
+  <si>
+    <t>David1</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>verify login</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>verify landing page</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>sdfsdff</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>loginusername</t>
+  </si>
+  <si>
+    <t>loginpassword</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>sampleFirstName</t>
+  </si>
+  <si>
+    <t>SampleLastname</t>
+  </si>
+  <si>
+    <t>17 jiasdasd</t>
+  </si>
+  <si>
+    <t>textbox1</t>
+  </si>
+  <si>
+    <t>Email address or phone number</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>textbox2</t>
+  </si>
+  <si>
+    <t>textVBox1</t>
+  </si>
+  <si>
+    <t>txbox2</t>
+  </si>
+  <si>
+    <t>senthil</t>
+  </si>
+  <si>
+    <t>sumitha</t>
   </si>
 </sst>
 </file>
@@ -93,12 +211,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,9 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A5F4C9-1D4A-4EF9-BD4E-3660DBD6468D}">
   <dimension ref="G3:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,81 +647,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2398AAB3-E135-4E8D-85C6-E50E50157B31}">
-  <dimension ref="G3:J17"/>
+  <dimension ref="G2:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD5C1B2-199C-45FE-AC36-D9C0FF4F8B4E}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6000059</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
